--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
   <si>
     <t>Неделя</t>
   </si>
@@ -65,28 +65,31 @@
     <t>12:40-14:10</t>
   </si>
   <si>
+    <t>14:40-16:10</t>
+  </si>
+  <si>
+    <t>Нечетная</t>
+  </si>
+  <si>
+    <t>16:20-17:50</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>18:00-19:30</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Выч сист</t>
+  </si>
+  <si>
+    <t>Социология</t>
+  </si>
+  <si>
     <t>14:40:16:10</t>
-  </si>
-  <si>
-    <t>Нечетная</t>
-  </si>
-  <si>
-    <t>16:20-17:50</t>
-  </si>
-  <si>
-    <t>Экономика</t>
-  </si>
-  <si>
-    <t>18:00-19:30</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Выч сист</t>
-  </si>
-  <si>
-    <t>Социология</t>
   </si>
   <si>
     <t>Англ</t>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1471,10 +1474,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>506</v>
@@ -1491,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>506</v>
@@ -1519,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>508</v>
@@ -1536,13 +1539,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>508</v>
@@ -1553,13 +1556,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>331</v>
@@ -1570,13 +1573,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>331</v>
@@ -1587,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1604,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1621,13 +1624,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>408</v>
@@ -1638,13 +1641,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>408</v>
@@ -1655,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>408</v>
@@ -1672,13 +1675,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>408</v>
@@ -1689,7 +1692,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
